--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.3.1.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.3.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mallika/Dropbox/Accounting Courseware/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E33842E-EBDF-4463-B5B0-270008A7840E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3457833-371F-E442-B447-D7F092EFFEAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22000" windowHeight="14280" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Cash</t>
   </si>
@@ -42,10 +42,94 @@
     <t>Item</t>
   </si>
   <si>
-    <t>Debit</t>
-  </si>
-  <si>
-    <t>Credit</t>
+    <t>①</t>
+  </si>
+  <si>
+    <t>②</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>③</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Debit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>④</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Debit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>③</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Credit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>④</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Credit</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -55,7 +139,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +160,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="4">
@@ -125,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -144,6 +239,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,124 +570,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3056C779-24A2-4C13-B484-394CDF87168C}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="22" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" ht="22" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:7" ht="20" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="2">
         <v>42887</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5">
+      <c r="C3" s="3"/>
+      <c r="D3" s="5">
         <v>8000</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5">
         <v>8000</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:7" ht="20" customHeight="1">
+      <c r="B4" s="2">
         <v>42887</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5">
+      <c r="C4" s="3"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5">
         <v>2000</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>6000</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:7" ht="20" customHeight="1">
+      <c r="B5" s="2">
         <v>42891</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5">
+      <c r="C5" s="3"/>
+      <c r="D5" s="5">
         <v>800</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
         <v>6800</v>
       </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>42894</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
-        <v>500</v>
-      </c>
-      <c r="E6" s="5">
-        <v>6300</v>
-      </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>42896</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5">
-        <v>750</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5">
-        <v>7000</v>
-      </c>
-      <c r="F7" s="5"/>
+      <c r="G5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.3.1.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.3.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mallika/Dropbox/Accounting Courseware/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3457833-371F-E442-B447-D7F092EFFEAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C80B0E-58AD-4C16-97A9-CFD5DCBB3871}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22000" windowHeight="14280" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="22005" windowHeight="14280" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
   <si>
     <t>Cash</t>
   </si>
@@ -51,7 +51,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
       <t>③</t>
@@ -72,10 +72,10 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>④</t>
+      <t>③</t>
     </r>
     <r>
       <rPr>
@@ -86,17 +86,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Debit</t>
+      <t xml:space="preserve"> Credit</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>③</t>
+      <t>④</t>
     </r>
     <r>
       <rPr>
@@ -107,14 +107,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Credit</t>
+      <t xml:space="preserve"> Debit</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
       <t>④</t>
@@ -139,7 +139,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,8 +169,15 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -240,11 +247,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -573,33 +580,33 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22" customHeight="1">
+    <row r="1" spans="1:7" ht="21.95" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="22" customHeight="1">
+    <row r="2" spans="1:7" ht="21.95" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -613,17 +620,17 @@
         <v>5</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
-      <c r="A3" s="8"/>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="7"/>
       <c r="B3" s="2">
         <v>42887</v>
       </c>
@@ -637,7 +644,7 @@
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="2">
         <v>42887</v>
       </c>
@@ -651,7 +658,7 @@
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="2">
         <v>42891</v>
       </c>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.3.1.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.3.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C80B0E-58AD-4C16-97A9-CFD5DCBB3871}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B05A55-DE9D-4058-86F3-5EF7ECC2D560}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="22005" windowHeight="14280" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Cash</t>
   </si>
@@ -248,11 +248,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,9 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3056C779-24A2-4C13-B484-394CDF87168C}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
@@ -594,20 +592,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.95" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" ht="21.95" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
